--- a/数据表/Camp.xlsx
+++ b/数据表/Camp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>//注释,阵营id</t>
   </si>
@@ -94,7 +94,13 @@
     <t>玩家</t>
   </si>
   <si>
-    <t>普通怪物</t>
+    <t>敌人1</t>
+  </si>
+  <si>
+    <t>敌人2</t>
+  </si>
+  <si>
+    <t>敌人3</t>
   </si>
 </sst>
 </file>
@@ -1025,13 +1031,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="25.875" customWidth="1"/>
@@ -1049,7 +1055,6 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2"/>
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -1100,7 +1105,6 @@
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3"/>
       <c r="C3" t="s">
         <v>18</v>
       </c>
@@ -1147,7 +1151,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1163,8 +1167,14 @@
       <c r="E5">
         <v>2</v>
       </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1180,8 +1190,14 @@
       <c r="E6">
         <v>3</v>
       </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1195,6 +1211,58 @@
         <v>3</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
         <v>1</v>
       </c>
     </row>
